--- a/palettes/16 цветов.xlsx
+++ b/palettes/16 цветов.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\raskraska\raskraska\palettes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\source\C#\raskraska\palettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7202D7A-3916-4D4E-BDD4-6FFA59FFF939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637E1D87-49E9-44E4-B5B2-7B14891D3A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{07FE692D-4D66-4591-8803-F50D1D719192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07FE692D-4D66-4591-8803-F50D1D719192}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -131,73 +131,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,16 +240,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF808080"/>
+      <color rgb="FF70F073"/>
+      <color rgb="FF1A9E49"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FF008080"/>
-      <color rgb="FFC0C0C0"/>
       <color rgb="FFFF0000"/>
       <color rgb="FF800080"/>
       <color rgb="FF808000"/>
-      <color rgb="FF000080"/>
-      <color rgb="FF800000"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -563,17 +563,17 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -609,110 +609,110 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="12"/>
       <c r="C14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
         <v>15</v>
       </c>
